--- a/biology/Botanique/Plinia/Plinia.xlsx
+++ b/biology/Botanique/Plinia/Plinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plinia est un genre de plantes de la famille des Myrtaceae.
 espèces remarquables
 Plinia cauliflora est appelée Jaboticaba au Brésil, où on en consomme les fruits.
 écologie
-L'espèce d'acariens Kaliszewskia ochoai, de la famille des Tarsonemidae, a été décrite au Brésil à partir de spécimens femelles trouvés sur des espèces de Plinia[1],[2].
+L'espèce d'acariens Kaliszewskia ochoai, de la famille des Tarsonemidae, a été décrite au Brésil à partir de spécimens femelles trouvés sur des espèces de Plinia,.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Leste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon The Plant List (site visité le 11 septembre 2014), le genre comprend les espèces suivantes:
 Plinia abeggii
@@ -615,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carl von Linné, Sp. Pl. 516. 1753.</t>
         </is>
